--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3873" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3873" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -146,10 +146,6 @@
   </si>
   <si>
     <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的なEncounter（診察、受診、入退院など）と結びつけます。</t>
-  </si>
-  <si>
-    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2326,13 +2322,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -2346,10 +2342,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2360,28 +2356,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2431,13 +2427,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2463,10 +2459,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2477,25 +2473,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2546,19 +2542,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2578,10 +2574,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2592,28 +2588,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2663,19 +2659,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2695,10 +2691,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2709,7 +2705,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2721,16 +2717,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2756,43 +2752,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2812,21 +2808,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2838,16 +2834,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2897,25 +2893,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2929,14 +2925,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2955,16 +2951,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3014,7 +3010,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -3032,7 +3028,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -3046,10 +3042,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3072,13 +3068,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3117,17 +3113,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -3139,7 +3135,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -3159,13 +3155,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -3175,7 +3171,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -3187,13 +3183,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3244,7 +3240,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3253,10 +3249,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -3276,13 +3272,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
@@ -3292,7 +3288,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -3304,13 +3300,13 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3361,7 +3357,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3370,10 +3366,10 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -3393,13 +3389,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
@@ -3409,7 +3405,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3421,13 +3417,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3478,7 +3474,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3487,10 +3483,10 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -3510,13 +3506,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>38</v>
@@ -3538,13 +3534,13 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3595,7 +3591,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3604,10 +3600,10 @@
         <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3627,13 +3623,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>38</v>
@@ -3655,13 +3651,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3712,7 +3708,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3724,7 +3720,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -3744,14 +3740,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3764,25 +3760,25 @@
         <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -3831,7 +3827,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3843,13 +3839,13 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3863,10 +3859,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3874,7 +3870,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -3889,16 +3885,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3936,17 +3932,17 @@
         <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3958,16 +3954,16 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>38</v>
@@ -3978,23 +3974,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -4006,16 +4002,16 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4065,7 +4061,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -4077,16 +4073,16 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>38</v>
@@ -4097,10 +4093,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4111,7 +4107,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -4123,13 +4119,13 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4180,25 +4176,25 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -4212,14 +4208,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4238,16 +4234,16 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4285,19 +4281,19 @@
         <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4309,13 +4305,13 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>38</v>
@@ -4329,10 +4325,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4343,31 +4339,31 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -4392,55 +4388,55 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>38</v>
@@ -4448,10 +4444,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4462,31 +4458,31 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -4511,55 +4507,55 @@
         <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -4567,10 +4563,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4578,107 +4574,107 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="S21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF21" t="s" s="2">
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4686,10 +4682,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4697,31 +4693,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4771,31 +4767,31 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>38</v>
@@ -4803,10 +4799,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4817,25 +4813,25 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4886,31 +4882,31 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>38</v>
@@ -4918,10 +4914,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4932,28 +4928,28 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5003,31 +4999,31 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>38</v>
@@ -5035,13 +5031,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>38</v>
@@ -5063,16 +5059,16 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5122,7 +5118,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -5134,16 +5130,16 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>38</v>
@@ -5154,10 +5150,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5168,7 +5164,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -5180,13 +5176,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5237,25 +5233,25 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -5269,14 +5265,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5295,16 +5291,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5342,19 +5338,19 @@
         <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5366,13 +5362,13 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
@@ -5386,10 +5382,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5400,31 +5396,31 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -5449,55 +5445,55 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -5505,10 +5501,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5519,31 +5515,31 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5568,55 +5564,55 @@
         <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF29" t="s" s="2">
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5624,10 +5620,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5635,41 +5631,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="N30" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>38</v>
@@ -5711,31 +5707,31 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -5743,10 +5739,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5754,31 +5750,31 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5828,31 +5824,31 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5860,10 +5856,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5874,25 +5870,25 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K32" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5943,31 +5939,31 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5975,10 +5971,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5989,28 +5985,28 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K33" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6060,31 +6056,31 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>38</v>
@@ -6092,10 +6088,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6115,16 +6111,16 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6175,7 +6171,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -6187,13 +6183,13 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -6207,10 +6203,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6230,16 +6226,16 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6290,7 +6286,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6302,13 +6298,13 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -6322,10 +6318,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6333,31 +6329,31 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="J36" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6383,55 +6379,55 @@
         <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Z36" t="s" s="2">
+      <c r="AA36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AA36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>38</v>
@@ -6439,10 +6435,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6465,13 +6461,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6498,14 +6494,14 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
       </c>
@@ -6522,7 +6518,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6534,19 +6530,19 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>38</v>
@@ -6554,10 +6550,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6568,7 +6564,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6580,13 +6576,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6613,49 +6609,49 @@
         <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Z38" t="s" s="2">
+      <c r="AA38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6669,10 +6665,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6680,31 +6676,31 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6754,31 +6750,31 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6786,10 +6782,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6797,28 +6793,28 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K40" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6869,31 +6865,31 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6901,10 +6897,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6915,7 +6911,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6927,13 +6923,13 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6984,31 +6980,31 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -7016,10 +7012,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7042,13 +7038,13 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7099,7 +7095,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7111,16 +7107,16 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -7131,10 +7127,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7142,28 +7138,28 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K43" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7214,31 +7210,31 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -7246,10 +7242,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7269,16 +7265,16 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7329,7 +7325,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7341,19 +7337,19 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>38</v>
@@ -7361,10 +7357,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7375,7 +7371,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -7387,13 +7383,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7444,25 +7440,25 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
@@ -7476,14 +7472,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7502,16 +7498,16 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="N46" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7561,7 +7557,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7573,13 +7569,13 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7593,14 +7589,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7613,25 +7609,25 @@
         <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="N47" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7680,7 +7676,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7692,13 +7688,13 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7712,10 +7708,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7726,7 +7722,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7738,13 +7734,13 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7771,49 +7767,49 @@
         <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="Z48" t="s" s="2">
+      <c r="AA48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AA48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7827,10 +7823,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7838,28 +7834,28 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K49" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7910,25 +7906,25 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7942,10 +7938,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7968,13 +7964,13 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8001,14 +7997,14 @@
         <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>38</v>
       </c>
@@ -8025,7 +8021,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8037,19 +8033,19 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>38</v>
@@ -8057,10 +8053,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8083,16 +8079,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8142,7 +8138,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8154,30 +8150,30 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>362</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8188,7 +8184,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -8200,16 +8196,16 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8259,31 +8255,31 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8291,10 +8287,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8317,13 +8313,13 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8374,7 +8370,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8386,19 +8382,19 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>38</v>
@@ -8406,10 +8402,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8432,13 +8428,13 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8489,7 +8485,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8501,13 +8497,13 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8521,10 +8517,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8535,7 +8531,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8547,13 +8543,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8604,25 +8600,25 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -8636,10 +8632,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8650,7 +8646,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8662,13 +8658,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8719,25 +8715,25 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8751,10 +8747,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8777,13 +8773,13 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8822,17 +8818,17 @@
         <v>38</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8844,7 +8840,7 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -8864,13 +8860,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>38</v>
@@ -8892,13 +8888,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8949,7 +8945,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8958,10 +8954,10 @@
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -8981,13 +8977,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>38</v>
@@ -9009,13 +9005,13 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9066,7 +9062,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9075,10 +9071,10 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -9098,13 +9094,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>38</v>
@@ -9126,13 +9122,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9183,7 +9179,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9192,10 +9188,10 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -9215,13 +9211,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>38</v>
@@ -9243,13 +9239,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9300,7 +9296,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9309,10 +9305,10 @@
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -9332,13 +9328,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>38</v>
@@ -9360,13 +9356,13 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9417,7 +9413,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9426,10 +9422,10 @@
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -9449,14 +9445,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9469,25 +9465,25 @@
         <v>38</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="N63" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O63" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>38</v>
@@ -9536,7 +9532,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9548,13 +9544,13 @@
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
@@ -9568,10 +9564,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9582,7 +9578,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -9594,13 +9590,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9651,25 +9647,25 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
@@ -9683,10 +9679,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9697,7 +9693,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -9709,16 +9705,16 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9744,53 +9740,53 @@
         <v>38</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AA65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>38</v>
@@ -9798,10 +9794,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9812,7 +9808,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9824,13 +9820,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9881,25 +9877,25 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>38</v>
@@ -9913,14 +9909,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9939,16 +9935,16 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9986,19 +9982,19 @@
         <v>38</v>
       </c>
       <c r="AB67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC67" t="s" s="2">
+      <c r="AF67" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -10010,13 +10006,13 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>38</v>
@@ -10030,13 +10026,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>38</v>
@@ -10058,13 +10054,13 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10115,7 +10111,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10127,7 +10123,7 @@
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
@@ -10147,13 +10143,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C69" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>38</v>
@@ -10175,13 +10171,13 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10232,7 +10228,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10244,7 +10240,7 @@
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
@@ -10264,10 +10260,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10287,22 +10283,22 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10351,7 +10347,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10363,19 +10359,19 @@
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>38</v>
@@ -10383,10 +10379,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10397,31 +10393,31 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J71" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K71" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>38</v>
@@ -10470,31 +10466,31 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AG71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>38</v>
@@ -10502,10 +10498,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10516,7 +10512,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>38</v>
@@ -10528,13 +10524,13 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10561,53 +10557,53 @@
         <v>38</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AA72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>38</v>
@@ -10615,10 +10611,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10629,7 +10625,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>38</v>
@@ -10641,13 +10637,13 @@
         <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10698,25 +10694,25 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>38</v>
@@ -10730,14 +10726,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10756,16 +10752,16 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10803,19 +10799,19 @@
         <v>38</v>
       </c>
       <c r="AB74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC74" t="s" s="2">
+      <c r="AF74" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10827,13 +10823,13 @@
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>38</v>
@@ -10847,13 +10843,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C75" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>38</v>
@@ -10875,13 +10871,13 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10932,7 +10928,7 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -10944,7 +10940,7 @@
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>38</v>
@@ -10964,10 +10960,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10987,22 +10983,22 @@
         <v>38</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>38</v>
@@ -11051,7 +11047,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -11063,19 +11059,19 @@
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>38</v>
@@ -11083,10 +11079,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11097,31 +11093,31 @@
         <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J77" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K77" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -11170,31 +11166,31 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AG77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>38</v>
@@ -11202,10 +11198,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11216,7 +11212,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>38</v>
@@ -11228,19 +11224,19 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>38</v>
@@ -11265,55 +11261,55 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="Z78" t="s" s="2">
+      <c r="AA78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AA78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>38</v>
@@ -11321,10 +11317,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11335,7 +11331,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -11347,13 +11343,13 @@
         <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11404,25 +11400,25 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>38</v>
@@ -11436,14 +11432,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11462,16 +11458,16 @@
         <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11509,19 +11505,19 @@
         <v>38</v>
       </c>
       <c r="AB80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE80" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC80" t="s" s="2">
+      <c r="AF80" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11533,13 +11529,13 @@
         <v>38</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>38</v>
@@ -11553,13 +11549,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C81" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>38</v>
@@ -11581,13 +11577,13 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11638,7 +11634,7 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11650,7 +11646,7 @@
         <v>38</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>38</v>
@@ -11670,10 +11666,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11693,22 +11689,22 @@
         <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>38</v>
@@ -11745,17 +11741,17 @@
         <v>38</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11767,19 +11763,19 @@
         <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>38</v>
@@ -11787,13 +11783,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C83" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>38</v>
@@ -11803,31 +11799,31 @@
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J83" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K83" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>38</v>
@@ -11852,11 +11848,11 @@
         <v>38</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>38</v>
@@ -11874,7 +11870,7 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -11886,19 +11882,19 @@
         <v>38</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>38</v>
@@ -11906,10 +11902,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B84" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11920,7 +11916,7 @@
         <v>39</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>38</v>
@@ -11932,13 +11928,13 @@
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11989,25 +11985,25 @@
         <v>38</v>
       </c>
       <c r="AF84" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>38</v>
@@ -12021,14 +12017,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B85" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12047,16 +12043,16 @@
         <v>38</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12094,19 +12090,19 @@
         <v>38</v>
       </c>
       <c r="AB85" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE85" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC85" t="s" s="2">
+      <c r="AF85" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12118,13 +12114,13 @@
         <v>38</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>38</v>
@@ -12138,10 +12134,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B86" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12149,107 +12145,107 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J86" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G86" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K86" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF86" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="S86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF86" t="s" s="2">
+      <c r="AG86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AG86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>38</v>
@@ -12257,10 +12253,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B87" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12271,28 +12267,28 @@
         <v>39</v>
       </c>
       <c r="G87" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J87" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K87" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12342,31 +12338,31 @@
         <v>38</v>
       </c>
       <c r="AF87" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AG87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>38</v>
@@ -12374,10 +12370,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B88" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12388,29 +12384,29 @@
         <v>39</v>
       </c>
       <c r="G88" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J88" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K88" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>38</v>
@@ -12459,31 +12455,31 @@
         <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AG88" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL88" t="s" s="2">
+      <c r="AM88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>38</v>
@@ -12491,10 +12487,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12505,29 +12501,29 @@
         <v>39</v>
       </c>
       <c r="G89" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J89" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K89" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>38</v>
@@ -12576,31 +12572,31 @@
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AG89" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL89" t="s" s="2">
+      <c r="AM89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>38</v>
@@ -12608,10 +12604,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B90" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12622,31 +12618,31 @@
         <v>39</v>
       </c>
       <c r="G90" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J90" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K90" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>38</v>
@@ -12695,31 +12691,31 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AG90" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL90" t="s" s="2">
+      <c r="AM90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>38</v>
@@ -12727,13 +12723,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C91" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>38</v>
@@ -12743,31 +12739,31 @@
         <v>39</v>
       </c>
       <c r="G91" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J91" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K91" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M91" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="N91" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O91" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>38</v>
@@ -12792,11 +12788,11 @@
         <v>38</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>38</v>
@@ -12814,7 +12810,7 @@
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -12826,19 +12822,19 @@
         <v>38</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>38</v>
@@ -12846,10 +12842,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12860,7 +12856,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>38</v>
@@ -12872,13 +12868,13 @@
         <v>38</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12929,25 +12925,25 @@
         <v>38</v>
       </c>
       <c r="AF92" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>38</v>
@@ -12961,14 +12957,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12987,16 +12983,16 @@
         <v>38</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13034,19 +13030,19 @@
         <v>38</v>
       </c>
       <c r="AB93" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE93" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC93" t="s" s="2">
+      <c r="AF93" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
@@ -13058,13 +13054,13 @@
         <v>38</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>38</v>
@@ -13078,10 +13074,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13089,41 +13085,41 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J94" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G94" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K94" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>38</v>
@@ -13165,31 +13161,31 @@
         <v>38</v>
       </c>
       <c r="AF94" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL94" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AG94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL94" t="s" s="2">
+      <c r="AM94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>38</v>
@@ -13197,10 +13193,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13211,28 +13207,28 @@
         <v>39</v>
       </c>
       <c r="G95" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J95" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K95" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13282,31 +13278,31 @@
         <v>38</v>
       </c>
       <c r="AF95" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AG95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL95" t="s" s="2">
+      <c r="AM95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>38</v>
@@ -13314,10 +13310,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13328,29 +13324,29 @@
         <v>39</v>
       </c>
       <c r="G96" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J96" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K96" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>38</v>
@@ -13399,31 +13395,31 @@
         <v>38</v>
       </c>
       <c r="AF96" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL96" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AG96" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL96" t="s" s="2">
+      <c r="AM96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>38</v>
@@ -13431,10 +13427,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13445,29 +13441,29 @@
         <v>39</v>
       </c>
       <c r="G97" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J97" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K97" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>38</v>
@@ -13516,31 +13512,31 @@
         <v>38</v>
       </c>
       <c r="AF97" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL97" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AG97" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL97" t="s" s="2">
+      <c r="AM97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>38</v>
@@ -13548,10 +13544,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13562,31 +13558,31 @@
         <v>39</v>
       </c>
       <c r="G98" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J98" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K98" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>38</v>
@@ -13635,31 +13631,31 @@
         <v>38</v>
       </c>
       <c r="AF98" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AG98" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AM98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>38</v>
@@ -13667,10 +13663,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13681,31 +13677,31 @@
         <v>39</v>
       </c>
       <c r="G99" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J99" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K99" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>38</v>
@@ -13754,31 +13750,31 @@
         <v>38</v>
       </c>
       <c r="AF99" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL99" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AG99" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL99" t="s" s="2">
+      <c r="AM99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>38</v>
@@ -13786,10 +13782,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13800,7 +13796,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>38</v>
@@ -13812,16 +13808,16 @@
         <v>38</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13871,31 +13867,31 @@
         <v>38</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL100" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AK100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL100" t="s" s="2">
+      <c r="AM100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>38</v>
@@ -13903,10 +13899,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13917,7 +13913,7 @@
         <v>39</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>38</v>
@@ -13929,16 +13925,16 @@
         <v>38</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13976,41 +13972,41 @@
         <v>38</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AC101" s="2"/>
       <c r="AD101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE101" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL101" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AF101" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL101" t="s" s="2">
+      <c r="AM101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>38</v>
@@ -14018,13 +14014,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C102" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>38</v>
@@ -14034,7 +14030,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>38</v>
@@ -14046,16 +14042,16 @@
         <v>38</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14105,31 +14101,31 @@
         <v>38</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ102" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL102" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="AK102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="AM102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>38</v>
@@ -14137,13 +14133,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C103" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>38</v>
@@ -14153,7 +14149,7 @@
         <v>39</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>38</v>
@@ -14165,16 +14161,16 @@
         <v>38</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14224,31 +14220,31 @@
         <v>38</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AK103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL103" t="s" s="2">
+      <c r="AM103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>38</v>
@@ -14256,10 +14252,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14282,16 +14278,16 @@
         <v>38</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14341,7 +14337,7 @@
         <v>38</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>39</v>
@@ -14353,13 +14349,13 @@
         <v>38</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>38</v>
